--- a/xlsx/美国国家公园列表_intext.xlsx
+++ b/xlsx/美国国家公园列表_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="837">
   <si>
     <t>美国国家公园列表</t>
   </si>
@@ -29,7 +29,7 @@
     <t>黄石国家公园</t>
   </si>
   <si>
-    <t>政策_政策_美國_美国国家公园列表</t>
+    <t>政策_政策_美国_美国国家公园列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B2%A9%E6%BA%AA%E5%85%AC%E5%9C%92_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E7%89%B9%E5%8D%80)</t>
   </si>
   <si>
-    <t>岩溪公園 (華盛頓哥倫比亞特區)</t>
+    <t>岩溪公园 (华盛顿哥伦比亚特区)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E6%9D%89%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E7%B4%80%E5%BF%B5%E5%8D%80</t>
   </si>
   <si>
-    <t>國家紀念區</t>
+    <t>国家纪念区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%96%E9%A0%82%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>尖頂國家公園</t>
+    <t>尖顶国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%9E%E8%90%A8%E6%91%A9%E4%BA%9A</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%97%E6%A0%BC%EF%BC%8D%E8%81%96%E4%BC%8A%E5%88%A9%E4%BA%9E%E6%96%AF%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92%E6%9A%A8%E4%BF%9D%E8%AD%B7%E5%8D%80</t>
   </si>
   <si>
-    <t>朗格－聖伊利亞斯國家公園暨保護區</t>
+    <t>朗格－圣伊利亚斯国家公园暨保护区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%9D%A2%E7%A7%AF%E5%88%97%E8%A1%A8</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%92%E7%89%B9%E8%BF%AA%E7%91%9F%E7%89%B9%E5%B3%B6</t>
   </si>
   <si>
-    <t>芒特迪瑟特島</t>
+    <t>芒特迪瑟特岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%8A%E7%91%9A%E7%A4%81</t>
@@ -335,13 +335,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E5%A2%83</t>
   </si>
   <si>
-    <t>美墨邊境</t>
+    <t>美墨边境</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E8%98%AD%E5%BE%B7%E6%B2%B3</t>
   </si>
   <si>
-    <t>格蘭德河</t>
+    <t>格兰德河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%9E%A9%E7%BA%AA</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E7%B4%80</t>
   </si>
   <si>
-    <t>第三紀</t>
+    <t>第三纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E6%96%AF%E5%9D%8E%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E7%A4%81%E5%B3%B6%E7%BE%A4</t>
   </si>
   <si>
-    <t>佛羅里達礁島群</t>
+    <t>佛罗里达礁岛群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E6%A0%91%E6%9E%97</t>
@@ -443,13 +443,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%93%E5%BD%A2%E7%AB%B6%E6%8A%80%E5%A0%B4</t>
   </si>
   <si>
-    <t>圓形競技場</t>
+    <t>圆形竞技场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%88%BE%E9%96%80%E6%95%99%E5%BE%92</t>
   </si>
   <si>
-    <t>摩爾門教徒</t>
+    <t>摩尔门教徒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B3%A1%E8%B0%B7%E5%9C%B0%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -575,7 +575,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E9%9C%8D%E5%8A%A0%E6%B2%B3</t>
   </si>
   <si>
-    <t>凱霍加河</t>
+    <t>凯霍加河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E4%BA%A1%E8%B0%B7%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -605,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%A1%B9</t>
   </si>
   <si>
-    <t>地塹</t>
+    <t>地堑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E7%BA%B3%E5%88%A9%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%92%8C%E4%BF%9D%E7%95%99%E5%8C%BA</t>
@@ -689,13 +689,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E5%B1%B1%E7%8D%85</t>
   </si>
   <si>
-    <t>佛羅里達山獅</t>
+    <t>佛罗里达山狮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B7%9D%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>冰川國家公園 (美國)</t>
+    <t>冰川国家公园 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
@@ -707,7 +707,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E7%89%B9%E9%A0%93-%E5%86%B0%E5%B7%9D%E5%9C%8B%E9%9A%9B%E5%92%8C%E5%B9%B3%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>沃特頓-冰川國際和平公園</t>
+    <t>沃特顿-冰川国际和平公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%BD%E5%9F%BA%E5%B1%B1%E8%84%89</t>
@@ -719,7 +719,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%86%E6%96%B7%E5%B1%A4</t>
   </si>
   <si>
-    <t>逆斷層</t>
+    <t>逆断层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E5%8F%A4%E5%AE%99</t>
@@ -755,7 +755,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E9%AB%98%E5%8E%9F</t>
   </si>
   <si>
-    <t>科羅拉多高原</t>
+    <t>科罗拉多高原</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E9%A1%B6%E5%B1%B1</t>
@@ -767,7 +767,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%92%82%E9%A0%93%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>大蒂頓國家公園</t>
+    <t>大蒂顿国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E</t>
@@ -779,13 +779,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%8F%90%E9%A0%93%E5%B3%B0</t>
   </si>
   <si>
-    <t>大提頓峰</t>
+    <t>大提顿峰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9B%86%E5%9C%B0%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>大盆地國家公園</t>
+    <t>大盆地国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%89%E8%A7%92%E7%BE%9A</t>
@@ -827,7 +827,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E9%81%94%E6%B4%9B%E6%99%AE%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>瓜達洛普山國家公園</t>
+    <t>瓜达洛普山国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%8F%A0%E7%BA%AA</t>
@@ -839,7 +839,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%8B%92%E5%8D%A1%E6%8B%89%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>海勒卡拉國家公園</t>
+    <t>海勒卡拉国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -857,13 +857,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%8A%E4%BA%9E%E5%8D%A1%E6%8B%89%E7%81%AB%E5%B1%B1</t>
   </si>
   <si>
-    <t>哈萊亞卡拉火山</t>
+    <t>哈莱亚卡拉火山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%B1%B1%E6%B8%A3%E9%8C%90</t>
   </si>
   <si>
-    <t>火山渣錐</t>
+    <t>火山渣锥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E9%9B%81</t>
@@ -875,19 +875,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E7%81%AB%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>夏威夷火山國家公園</t>
+    <t>夏威夷火山国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B3%B6</t>
   </si>
   <si>
-    <t>夏威夷島</t>
+    <t>夏威夷岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E6%8B%89%E9%9F%8B%E5%8E%84%E7%81%AB%E5%B1%B1</t>
   </si>
   <si>
-    <t>基拉韋厄火山</t>
+    <t>基拉韦厄火山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%92%E7%BA%B3%E7%BD%97%E4%BA%9A%E7%81%AB%E5%B1%B1</t>
@@ -905,7 +905,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%B6%E5%B3%B6%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>皇家島國家公園</t>
+    <t>皇家岛国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
@@ -929,7 +929,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%9B%B8%E4%BA%9E%E6%A8%B9%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>約書亞樹國家公園</t>
+    <t>约书亚树国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E6%B2%99%E6%BC%A0</t>
@@ -947,7 +947,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%89%B9%E9%82%81%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92%E5%92%8C%E8%87%AA%E7%84%B6%E4%BF%9D%E8%AD%B7%E5%8D%80</t>
   </si>
   <si>
-    <t>卡特邁國家公園和自然保護區</t>
+    <t>卡特迈国家公园和自然保护区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%8D%8A%E5%B2%9B</t>
@@ -959,19 +959,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E7%93%A6%E9%AD%AF%E6%99%AE%E5%A1%94%E7%81%AB%E5%B1%B1</t>
   </si>
   <si>
-    <t>諾瓦魯普塔火山</t>
+    <t>诺瓦鲁普塔火山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%89%B9%E9%82%81%E7%81%AB%E5%B1%B1</t>
   </si>
   <si>
-    <t>卡特邁火山</t>
+    <t>卡特迈火山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E7%85%99%E8%B0%B7</t>
   </si>
   <si>
-    <t>萬煙谷</t>
+    <t>万烟谷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B2%91%E9%B1%BC</t>
@@ -995,13 +995,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%A5%88%E5%B3%BD%E7%81%A3%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>基奈峽灣國家公園</t>
+    <t>基奈峡湾国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%A5%88%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>基奈半島</t>
+    <t>基奈半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E5%8E%84%E5%BE%B7_(%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
@@ -1037,13 +1037,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E4%BC%AF%E5%85%8B%E8%B0%B7%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>科伯克谷國家公園</t>
+    <t>科伯克谷国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E5%85%8B%E6%B9%96%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92%E5%92%8C%E8%87%AA%E7%84%B6%E4%BF%9D%E8%AD%B7%E5%8D%80</t>
   </si>
   <si>
-    <t>克拉克湖國家公園和自然保護區</t>
+    <t>克拉克湖国家公园和自然保护区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E9%81%93%E7%89%B9%E7%81%AB%E5%B1%B1</t>
@@ -1055,7 +1055,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%A3%AE%E7%81%AB%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>拉森火山國家公園</t>
+    <t>拉森火山国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%B1%B1%E7%A9%B9%E4%B8%98</t>
@@ -1067,7 +1067,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%B1%B1%E5%99%B4%E6%B0%A3%E5%AD%94</t>
   </si>
   <si>
-    <t>火山噴氣孔</t>
+    <t>火山喷气孔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%9B%E7%8A%B8%E6%B4%9E%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -1085,7 +1085,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9E%E9%B1%B8</t>
   </si>
   <si>
-    <t>洞鱸</t>
+    <t>洞鲈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E6%B2%B3_(%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E)</t>
@@ -1109,7 +1109,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%B0%BC%E7%88%BE%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>瑞尼爾山國家公園</t>
+    <t>瑞尼尔山国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E</t>
@@ -1151,7 +1151,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>奧林匹克國家公園</t>
+    <t>奥林匹克国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%9E%97%E5%8C%B9%E6%96%AF%E5%B1%B1_(%E7%BE%8E%E5%9B%BD)</t>
@@ -1199,7 +1199,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E7%B4%8B%E5%B2%A9</t>
   </si>
   <si>
-    <t>流紋岩</t>
+    <t>流纹岩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%80%E5%B2%A9</t>
@@ -1211,13 +1211,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%B5%B7%E5%B2%B8%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>太平洋海岸山脈</t>
+    <t>太平洋海岸山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E6%9C%A8%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>紅木國家公園</t>
+    <t>红木国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E7%BA%A2%E6%9C%A8</t>
@@ -1247,7 +1247,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A8%BE%E9%B9%BF</t>
   </si>
   <si>
-    <t>騾鹿</t>
+    <t>骡鹿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E9%BB%91%E7%86%8A</t>
@@ -1271,7 +1271,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A8%E4%BA%BA%E6%9F%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>巨人柱國家公園</t>
+    <t>巨人柱国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E8%AF%BA%E5%85%B0%E6%B2%99%E6%BC%A0</t>
@@ -1325,7 +1325,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%99%E7%B4%8D%E5%BA%A6%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>仙納度國家公園</t>
+    <t>仙纳度国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
@@ -1337,7 +1337,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E5%B6%BA%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>藍嶺山脈</t>
+    <t>蓝岭山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B0%A2%E5%8D%97%E5%A4%9A%E4%BA%9A%E6%B2%B3</t>
@@ -1367,7 +1367,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>維爾京群島國家公園</t>
+    <t>维尔京群岛国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%BA%A6%E7%BF%B0%E5%B2%9B_(%E7%BE%8E%E5%B1%9E%E7%BB%B4%E5%B0%94%E4%BA%AC%E7%BE%A4%E5%B2%9B)</t>
@@ -1391,7 +1391,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%B5%E5%A4%AB%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>樵夫國家公園</t>
+    <t>樵夫国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%8B%8F%E8%BE%BE%E5%B7%9E</t>
@@ -1415,7 +1415,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E7%A9%B4%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>風穴國家公園</t>
+    <t>风穴国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E8%A7%A3%E7%9F%B3</t>
@@ -1433,7 +1433,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E9%A6%AC%E9%B9%BF</t>
   </si>
   <si>
-    <t>加拿大馬鹿</t>
+    <t>加拿大马鹿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%BB%84%E6%9D%BE</t>
@@ -1451,7 +1451,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9F%83%E5%88%A9%E4%BA%9E%E6%96%AF%E5%B1%B1</t>
   </si>
   <si>
-    <t>聖埃利亞斯山</t>
+    <t>圣埃利亚斯山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E8%BE%BE%E8%8D%B7%E5%B7%9E</t>
@@ -1469,25 +1469,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E5%BF%A0%E5%AF%A6%E9%96%93%E6%AD%87%E6%B3%89</t>
   </si>
   <si>
-    <t>老忠實間歇泉</t>
+    <t>老忠实间歇泉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%A8%9C%E9%8F%A1%E6%BA%AB%E6%B3%89</t>
   </si>
   <si>
-    <t>大稜鏡溫泉</t>
+    <t>大稜镜温泉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E7%9F%B3%E6%B2%B3</t>
   </si>
   <si>
-    <t>黃石河</t>
+    <t>黄石河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%9E%E7%8C%81%E5%B1%AC</t>
   </si>
   <si>
-    <t>猞猁屬</t>
+    <t>猞猁属</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E5%A1%9E%E7%B1%B3%E8%92%82%E8%B0%B7</t>
@@ -1499,7 +1499,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E5%8B%9D%E7%BE%8E%E5%9C%B0%E7%80%91%E5%B8%83</t>
   </si>
   <si>
-    <t>優勝美地瀑布</t>
+    <t>优胜美地瀑布</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%94%A1%E5%AE%89%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -1577,45 +1577,33 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>Template talk-美國國家公園</t>
+    <t>Template talk-美国国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%A7%91%E5%BA%95%E4%BA%9E%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>阿科底亞國家公園</t>
+    <t>阿科底亚国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>美屬薩摩亞國家公園</t>
+    <t>美属萨摩亚国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%B1%E9%96%80%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>拱門國家公園</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%BD%8E%E6%9B%B2%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>大彎曲國家公園</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%90%8A%E6%96%AF%E5%B3%BD%E8%B0%B7%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>布萊斯峽谷國家公園</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E7%BA%B3%E5%88%A9%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%92%8C%E7%A6%81%E7%8C%8E%E5%8C%BA</t>
   </si>
   <si>
@@ -1625,87 +1613,60 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%BE%E9%BE%9C%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>乾龜國家公園</t>
+    <t>干龟国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B2%BC%E6%BE%A4%E5%9C%B0%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>大沼澤地國家公園</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B7%9D%E7%81%A3%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>冰川灣國家公園</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%B3%BD%E8%B0%B7%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>大峽谷國家公園</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%85%99%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>大煙山國家公園</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%9B%E7%8D%81%E6%B4%9E%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>猛獁洞國家公園</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%96%80%E6%96%AF%E9%96%8B%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>北喀斯開山國家公園</t>
+    <t>北喀斯开山国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>洛磯山國家公園</t>
+    <t>洛矶山国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%A5%E5%A4%9A%C2%B7%E7%BE%85%E6%96%AF%E7%A6%8F%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>西奥多·羅斯福國家公園</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E6%B4%9E%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>風洞國家公園</t>
+    <t>风洞国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E8%98%AD%E6%A0%BC%E7%88%BE%EF%BC%8D%E8%81%96%E4%BC%8A%E8%90%8A%E4%BA%9E%E6%96%AF%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>弗蘭格爾－聖伊萊亞斯國家公園</t>
+    <t>弗兰格尔－圣伊莱亚斯国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E7%9F%B3%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>黃石國家公園</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E5%8B%9D%E7%BE%8E%E5%9C%B0%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>優勝美地國家公園</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E5%AE%89%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>錫安國家公園</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
   </si>
   <si>
@@ -1721,7 +1682,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>前哥倫布時期</t>
+    <t>前哥伦布时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -1745,7 +1706,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
   </si>
   <si>
-    <t>美國領土變遷</t>
+    <t>美国领土变迁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
@@ -1793,7 +1754,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波斯灣戰爭</t>
+    <t>波斯湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
@@ -1805,7 +1766,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
   </si>
   <si>
-    <t>金融海嘯</t>
+    <t>金融海啸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
@@ -1835,7 +1796,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
   </si>
   <si>
-    <t>美國郵政署</t>
+    <t>美国邮政署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
@@ -1865,7 +1826,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -1895,7 +1856,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國聯邦機構列表</t>
+    <t>美国联邦机构列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%8A%9E%E4%BA%8B%E6%9C%BA%E6%9E%84</t>
@@ -1919,7 +1880,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>美國政府獨立機構</t>
+    <t>美国政府独立机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
@@ -1961,13 +1922,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>美國情報體系</t>
+    <t>美国情报体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>國家情報總監</t>
+    <t>国家情报总监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
@@ -1979,13 +1940,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>國防情報局</t>
+    <t>国防情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>美國國家地理空間情報局</t>
+    <t>美国国家地理空间情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
@@ -2033,7 +1994,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國國民警衛隊</t>
+    <t>美国国民警卫队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
@@ -2045,7 +2006,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>美國選舉</t>
+    <t>美国选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
@@ -2087,7 +2048,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
   </si>
   <si>
-    <t>美國第51州</t>
+    <t>美国第51州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
@@ -2099,7 +2060,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>紅州與藍州</t>
+    <t>红州与蓝州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Purple_America</t>
@@ -2129,19 +2090,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>洛磯山脈</t>
+    <t>洛矶山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美國地區</t>
+    <t>美国地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>新英格蘭</t>
+    <t>新英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
@@ -2153,13 +2114,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國南部</t>
+    <t>美国南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國中西部</t>
+    <t>美国中西部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
@@ -2171,13 +2132,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西北部</t>
+    <t>美国西北部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西南部</t>
+    <t>美国西南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
@@ -2219,7 +2180,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
   </si>
   <si>
-    <t>美國夢</t>
+    <t>美国梦</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
@@ -2231,13 +2192,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>聯邦儲備系統</t>
+    <t>联邦储备系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>美國的工會</t>
+    <t>美国的工会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
@@ -2249,7 +2210,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
   </si>
   <si>
-    <t>美國國債</t>
+    <t>美国国债</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
@@ -2261,7 +2222,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>美國交通</t>
+    <t>美国交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
@@ -2273,13 +2234,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
   </si>
   <si>
-    <t>美國國道</t>
+    <t>美国国道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>州際公路系統</t>
+    <t>州际公路系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
@@ -2303,7 +2264,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>美國社會</t>
+    <t>美国社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
@@ -2375,15 +2336,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
   </si>
   <si>
-    <t>美國社會階層</t>
+    <t>美国社会阶层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
   </si>
   <si>
-    <t>美国梦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
   </si>
   <si>
@@ -2393,7 +2351,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>美國LGBT權益</t>
+    <t>美国LGBT权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -2447,7 +2405,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>美國飲食文化</t>
+    <t>美国饮食文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
@@ -2483,7 +2441,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>美國電視</t>
+    <t>美国电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
@@ -2501,7 +2459,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>抽象表現主義</t>
+    <t>抽象表现主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
@@ -2537,19 +2495,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>美國槍支政治</t>
+    <t>美国枪支政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>美國槍枝暴力問題</t>
+    <t>美国枪枝暴力问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>美國醫療改革</t>
+    <t>美国医疗改革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
@@ -10855,7 +10813,7 @@
         <v>521</v>
       </c>
       <c r="F274" t="s">
-        <v>522</v>
+        <v>6</v>
       </c>
       <c r="G274" t="n">
         <v>7</v>
@@ -10881,10 +10839,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
+        <v>522</v>
+      </c>
+      <c r="F275" t="s">
         <v>523</v>
-      </c>
-      <c r="F275" t="s">
-        <v>524</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10910,10 +10868,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
+        <v>524</v>
+      </c>
+      <c r="F276" t="s">
         <v>525</v>
-      </c>
-      <c r="F276" t="s">
-        <v>526</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10939,10 +10897,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F277" t="s">
-        <v>528</v>
+        <v>80</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10997,10 +10955,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F279" t="s">
-        <v>530</v>
+        <v>102</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11026,10 +10984,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F280" t="s">
-        <v>532</v>
+        <v>140</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11055,10 +11013,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F281" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11084,10 +11042,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F282" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11113,10 +11071,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F283" t="s">
-        <v>538</v>
+        <v>220</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11171,10 +11129,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F285" t="s">
-        <v>540</v>
+        <v>238</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11200,10 +11158,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="F286" t="s">
-        <v>542</v>
+        <v>62</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11258,10 +11216,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="F288" t="s">
-        <v>544</v>
+        <v>58</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11461,10 +11419,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="F295" t="s">
-        <v>546</v>
+        <v>352</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11519,10 +11477,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="F297" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11635,10 +11593,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="F301" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11693,10 +11651,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="F303" t="s">
-        <v>552</v>
+        <v>444</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11751,10 +11709,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="F305" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11780,10 +11738,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="F306" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11809,10 +11767,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="F307" t="s">
-        <v>558</v>
+        <v>3</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11838,10 +11796,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="F308" t="s">
-        <v>560</v>
+        <v>28</v>
       </c>
       <c r="G308" t="n">
         <v>2</v>
@@ -11867,10 +11825,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="F309" t="s">
-        <v>562</v>
+        <v>496</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11925,10 +11883,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="F311" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="G311" t="n">
         <v>17</v>
@@ -11954,10 +11912,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="F312" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11983,10 +11941,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="F313" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12012,10 +11970,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="F314" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12041,10 +11999,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="F315" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12070,10 +12028,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="F316" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12099,10 +12057,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="F317" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12128,10 +12086,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="F318" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12157,10 +12115,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="F319" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12186,10 +12144,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="F320" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12215,10 +12173,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="F321" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12244,10 +12202,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="F322" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12273,10 +12231,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="F323" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12302,10 +12260,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="F324" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12331,10 +12289,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="F325" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12360,10 +12318,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="F326" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12389,10 +12347,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="F327" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12418,10 +12376,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="F328" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="G328" t="n">
         <v>2</v>
@@ -12447,10 +12405,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="F329" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="G329" t="n">
         <v>2</v>
@@ -12476,10 +12434,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="F330" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12505,10 +12463,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="F331" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="G331" t="n">
         <v>2</v>
@@ -12534,10 +12492,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="F332" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12563,10 +12521,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="F333" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12592,10 +12550,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="F334" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12621,10 +12579,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="F335" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12650,10 +12608,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="F336" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12679,10 +12637,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="F337" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12708,10 +12666,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="F338" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12737,10 +12695,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="F339" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12766,10 +12724,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="F340" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12795,10 +12753,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="F341" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12824,10 +12782,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="F342" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12853,10 +12811,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="F343" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12882,10 +12840,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="F344" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12911,10 +12869,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="F345" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12940,10 +12898,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="F346" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12969,10 +12927,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="F347" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12998,10 +12956,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="F348" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13027,10 +12985,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="F349" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13056,10 +13014,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="F350" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13085,10 +13043,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="F351" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13114,10 +13072,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="F352" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13143,10 +13101,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="F353" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="G353" t="n">
         <v>3</v>
@@ -13172,10 +13130,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="F354" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13201,10 +13159,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="F355" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13230,10 +13188,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="F356" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13259,10 +13217,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="F357" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13288,10 +13246,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="F358" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13317,10 +13275,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="F359" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13346,10 +13304,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="F360" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13375,10 +13333,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="F361" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13404,10 +13362,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="F362" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13433,10 +13391,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="F363" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="G363" t="n">
         <v>2</v>
@@ -13462,10 +13420,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="F364" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13491,10 +13449,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="F365" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13520,10 +13478,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="F366" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="G366" t="n">
         <v>4</v>
@@ -13549,10 +13507,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="F367" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="G367" t="n">
         <v>2</v>
@@ -13578,10 +13536,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="F368" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13607,10 +13565,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="F369" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13636,10 +13594,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="F370" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13665,10 +13623,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="F371" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13694,10 +13652,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="F372" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13723,10 +13681,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="F373" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13752,10 +13710,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="F374" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13781,10 +13739,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="F375" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13810,10 +13768,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="F376" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13839,10 +13797,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="F377" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13868,10 +13826,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="F378" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13897,10 +13855,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="F379" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="G379" t="n">
         <v>10</v>
@@ -13926,10 +13884,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="F380" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13984,10 +13942,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="F382" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="G382" t="n">
         <v>2</v>
@@ -14013,10 +13971,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="F383" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14042,10 +14000,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="F384" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14071,10 +14029,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="F385" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14100,10 +14058,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="F386" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14129,10 +14087,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="F387" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14158,10 +14116,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="F388" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14187,10 +14145,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="F389" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14216,10 +14174,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="F390" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14245,10 +14203,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
       <c r="F391" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
       <c r="G391" t="n">
         <v>6</v>
@@ -14274,10 +14232,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="F392" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14303,10 +14261,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="F393" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14332,10 +14290,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="F394" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14361,10 +14319,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="F395" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
       <c r="G395" t="n">
         <v>2</v>
@@ -14390,10 +14348,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="F396" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14419,10 +14377,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
       <c r="F397" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14448,10 +14406,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="F398" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14477,10 +14435,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="F399" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14506,10 +14464,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="F400" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14535,10 +14493,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="F401" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14564,10 +14522,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="F402" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14593,10 +14551,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="F403" t="s">
-        <v>746</v>
+        <v>733</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14622,10 +14580,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="F404" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14651,10 +14609,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
       <c r="F405" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14680,10 +14638,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
       <c r="F406" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14709,10 +14667,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
       <c r="F407" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14738,10 +14696,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
       <c r="F408" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14767,10 +14725,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
       <c r="F409" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14796,10 +14754,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="F410" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -14825,10 +14783,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="F411" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="G411" t="n">
         <v>3</v>
@@ -14854,10 +14812,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="F412" t="s">
-        <v>764</v>
+        <v>751</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -14883,10 +14841,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>765</v>
+        <v>752</v>
       </c>
       <c r="F413" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
       <c r="G413" t="n">
         <v>2</v>
@@ -14912,10 +14870,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
       <c r="F414" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -14941,10 +14899,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
       <c r="F415" t="s">
-        <v>770</v>
+        <v>757</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -14970,10 +14928,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="F416" t="s">
-        <v>772</v>
+        <v>759</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -14999,10 +14957,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
       <c r="F417" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15028,10 +14986,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="F418" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15057,10 +15015,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="F419" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
       <c r="G419" t="n">
         <v>5</v>
@@ -15086,10 +15044,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="F420" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
       <c r="G420" t="n">
         <v>3</v>
@@ -15115,10 +15073,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="F421" t="s">
-        <v>782</v>
+        <v>769</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15144,10 +15102,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>783</v>
+        <v>770</v>
       </c>
       <c r="F422" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15173,10 +15131,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="F423" t="s">
-        <v>786</v>
+        <v>773</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15202,10 +15160,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="F424" t="s">
-        <v>788</v>
+        <v>721</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15231,10 +15189,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="F425" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15260,10 +15218,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
       <c r="F426" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15289,10 +15247,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
       <c r="F427" t="s">
-        <v>794</v>
+        <v>780</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15318,10 +15276,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
       <c r="F428" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15347,10 +15305,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>797</v>
+        <v>783</v>
       </c>
       <c r="F429" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
       <c r="G429" t="n">
         <v>3</v>
@@ -15376,10 +15334,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
       <c r="F430" t="s">
-        <v>800</v>
+        <v>786</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15405,10 +15363,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>801</v>
+        <v>787</v>
       </c>
       <c r="F431" t="s">
-        <v>802</v>
+        <v>788</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15434,10 +15392,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>803</v>
+        <v>789</v>
       </c>
       <c r="F432" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15463,10 +15421,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>805</v>
+        <v>791</v>
       </c>
       <c r="F433" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15492,10 +15450,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>807</v>
+        <v>793</v>
       </c>
       <c r="F434" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
       <c r="G434" t="n">
         <v>6</v>
@@ -15521,10 +15479,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>809</v>
+        <v>795</v>
       </c>
       <c r="F435" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15550,10 +15508,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="F436" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15579,10 +15537,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
       <c r="F437" t="s">
-        <v>814</v>
+        <v>800</v>
       </c>
       <c r="G437" t="n">
         <v>4</v>
@@ -15608,10 +15566,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>815</v>
+        <v>801</v>
       </c>
       <c r="F438" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -15637,10 +15595,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
       <c r="F439" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -15666,10 +15624,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
       <c r="F440" t="s">
-        <v>820</v>
+        <v>806</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -15695,10 +15653,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>821</v>
+        <v>807</v>
       </c>
       <c r="F441" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="G441" t="n">
         <v>2</v>
@@ -15724,10 +15682,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>823</v>
+        <v>809</v>
       </c>
       <c r="F442" t="s">
-        <v>824</v>
+        <v>810</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -15753,10 +15711,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>825</v>
+        <v>811</v>
       </c>
       <c r="F443" t="s">
-        <v>826</v>
+        <v>812</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -15782,10 +15740,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>827</v>
+        <v>813</v>
       </c>
       <c r="F444" t="s">
-        <v>828</v>
+        <v>814</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -15811,10 +15769,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>829</v>
+        <v>815</v>
       </c>
       <c r="F445" t="s">
-        <v>830</v>
+        <v>816</v>
       </c>
       <c r="G445" t="n">
         <v>2</v>
@@ -15840,10 +15798,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="F446" t="s">
-        <v>832</v>
+        <v>818</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -15869,10 +15827,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>833</v>
+        <v>819</v>
       </c>
       <c r="F447" t="s">
-        <v>834</v>
+        <v>820</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -15898,10 +15856,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>835</v>
+        <v>821</v>
       </c>
       <c r="F448" t="s">
-        <v>836</v>
+        <v>822</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -15927,10 +15885,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>837</v>
+        <v>823</v>
       </c>
       <c r="F449" t="s">
-        <v>838</v>
+        <v>824</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -15956,10 +15914,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
       <c r="F450" t="s">
-        <v>840</v>
+        <v>826</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -15985,10 +15943,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>841</v>
+        <v>827</v>
       </c>
       <c r="F451" t="s">
-        <v>842</v>
+        <v>828</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16014,10 +15972,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>843</v>
+        <v>829</v>
       </c>
       <c r="F452" t="s">
-        <v>844</v>
+        <v>830</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16043,10 +16001,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>845</v>
+        <v>831</v>
       </c>
       <c r="F453" t="s">
-        <v>846</v>
+        <v>832</v>
       </c>
       <c r="G453" t="n">
         <v>2</v>
@@ -16072,10 +16030,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>847</v>
+        <v>833</v>
       </c>
       <c r="F454" t="s">
-        <v>848</v>
+        <v>834</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16101,10 +16059,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>849</v>
+        <v>835</v>
       </c>
       <c r="F455" t="s">
-        <v>850</v>
+        <v>836</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
